--- a/EDT.xlsx
+++ b/EDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reveillere/Documents/git/ens/DIU/bloc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CE4DE-64BE-E14C-B92E-9601EC46B03E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5AE928-6D53-9342-AB38-D5411300F6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15760" yWindow="6080" windowWidth="35440" windowHeight="22720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Groupe 1'!$A$1:$BT$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Groupe 2'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Groupe 3'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Groupe 4'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1446,7 +1443,7 @@
   <dimension ref="A2:BT45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1602,6 +1599,7 @@
       <c r="BR3" s="196"/>
       <c r="BS3" s="196"/>
     </row>
+    <row r="4" spans="1:72" ht="130" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84" t="s">
@@ -5015,6 +5013,7 @@
       <c r="BR3" s="196"/>
       <c r="BS3" s="196"/>
     </row>
+    <row r="4" spans="1:72" ht="130" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84" t="s">
@@ -8271,7 +8270,7 @@
   <dimension ref="A2:BT45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8427,6 +8426,7 @@
       <c r="BR3" s="196"/>
       <c r="BS3" s="196"/>
     </row>
+    <row r="4" spans="1:72" ht="130" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84" t="s">
@@ -11673,7 +11673,7 @@
   <dimension ref="A2:BT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11829,6 +11829,7 @@
       <c r="BR3" s="196"/>
       <c r="BS3" s="196"/>
     </row>
+    <row r="4" spans="1:72" ht="129" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="84" t="s">
@@ -15067,7 +15068,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>